--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H2">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.005965999999999999</v>
+        <v>0.0006136666666666667</v>
       </c>
       <c r="N2">
-        <v>0.017898</v>
+        <v>0.001841</v>
       </c>
       <c r="O2">
-        <v>0.00125947234315407</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="P2">
-        <v>0.001259472343154069</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="Q2">
-        <v>0.02324652894333333</v>
+        <v>0.008079503218111111</v>
       </c>
       <c r="R2">
-        <v>0.20921876049</v>
+        <v>0.072715528963</v>
       </c>
       <c r="S2">
-        <v>0.0005059558618197951</v>
+        <v>9.001959656573815E-05</v>
       </c>
       <c r="T2">
-        <v>0.000505955861819795</v>
+        <v>9.001959656573815E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H3">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I3">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J3">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.465328</v>
       </c>
       <c r="O3">
-        <v>0.8068087787009702</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="P3">
-        <v>0.8068087787009701</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="Q3">
-        <v>14.89155655362667</v>
+        <v>50.31730280972267</v>
       </c>
       <c r="R3">
-        <v>134.02400898264</v>
+        <v>452.855725287504</v>
       </c>
       <c r="S3">
-        <v>0.3241116275162939</v>
+        <v>0.5606215106213261</v>
       </c>
       <c r="T3">
-        <v>0.3241116275162939</v>
+        <v>0.5606215106213261</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H4">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I4">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J4">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>2.727487</v>
       </c>
       <c r="O4">
-        <v>0.1919317489558758</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="P4">
-        <v>0.1919317489558757</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="Q4">
-        <v>3.542552547103889</v>
+        <v>11.96998370117122</v>
       </c>
       <c r="R4">
-        <v>31.882972923935</v>
+        <v>107.729853310541</v>
       </c>
       <c r="S4">
-        <v>0.07710291852091226</v>
+        <v>0.1333662571310676</v>
       </c>
       <c r="T4">
-        <v>0.07710291852091225</v>
+        <v>0.1333662571310676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>9.71172</v>
       </c>
       <c r="I5">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J5">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.005965999999999999</v>
+        <v>0.0006136666666666667</v>
       </c>
       <c r="N5">
-        <v>0.017898</v>
+        <v>0.001841</v>
       </c>
       <c r="O5">
-        <v>0.00125947234315407</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="P5">
-        <v>0.001259472343154069</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="Q5">
-        <v>0.01931337383999999</v>
+        <v>0.00198658628</v>
       </c>
       <c r="R5">
-        <v>0.17382036456</v>
+        <v>0.01787927652</v>
       </c>
       <c r="S5">
-        <v>0.0004203515599978391</v>
+        <v>2.213399644024638E-05</v>
       </c>
       <c r="T5">
-        <v>0.000420351559997839</v>
+        <v>2.213399644024638E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.71172</v>
       </c>
       <c r="I6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>11.465328</v>
       </c>
       <c r="O6">
-        <v>0.8068087787009702</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="P6">
-        <v>0.8068087787009701</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="Q6">
         <v>12.37200613824</v>
@@ -818,10 +818,10 @@
         <v>111.34805524416</v>
       </c>
       <c r="S6">
-        <v>0.2692741373721592</v>
+        <v>0.1378454802489175</v>
       </c>
       <c r="T6">
-        <v>0.2692741373721592</v>
+        <v>0.1378454802489175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.71172</v>
       </c>
       <c r="I7">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J7">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>2.727487</v>
       </c>
       <c r="O7">
-        <v>0.1919317489558758</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="P7">
-        <v>0.1919317489558757</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="Q7">
         <v>2.94317667196</v>
@@ -880,10 +880,10 @@
         <v>26.48859004764</v>
       </c>
       <c r="S7">
-        <v>0.0640576274066279</v>
+        <v>0.03279206276415985</v>
       </c>
       <c r="T7">
-        <v>0.0640576274066279</v>
+        <v>0.03279206276415985</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H8">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I8">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J8">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -924,28 +924,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.005965999999999999</v>
+        <v>0.0006136666666666667</v>
       </c>
       <c r="N8">
-        <v>0.017898</v>
+        <v>0.001841</v>
       </c>
       <c r="O8">
-        <v>0.00125947234315407</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="P8">
-        <v>0.001259472343154069</v>
+        <v>0.000129696697123199</v>
       </c>
       <c r="Q8">
-        <v>0.01530751706066667</v>
+        <v>0.001574541228555555</v>
       </c>
       <c r="R8">
-        <v>0.137767653546</v>
+        <v>0.014170871057</v>
       </c>
       <c r="S8">
-        <v>0.0003331649213364355</v>
+        <v>1.754310411721449E-05</v>
       </c>
       <c r="T8">
-        <v>0.0003331649213364354</v>
+        <v>1.75431041172145E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H9">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I9">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J9">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>11.465328</v>
       </c>
       <c r="O9">
-        <v>0.8068087787009702</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="P9">
-        <v>0.8068087787009701</v>
+        <v>0.8077214410831794</v>
       </c>
       <c r="Q9">
-        <v>9.805883560517335</v>
+        <v>9.805883560517332</v>
       </c>
       <c r="R9">
-        <v>88.25295204465601</v>
+        <v>88.25295204465598</v>
       </c>
       <c r="S9">
-        <v>0.2134230138125171</v>
+        <v>0.1092544502129357</v>
       </c>
       <c r="T9">
-        <v>0.2134230138125171</v>
+        <v>0.1092544502129357</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H10">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>2.727487</v>
       </c>
       <c r="O10">
-        <v>0.1919317489558758</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="P10">
-        <v>0.1919317489558757</v>
+        <v>0.1921488622196973</v>
       </c>
       <c r="Q10">
         <v>2.332721744622111</v>
@@ -1066,10 +1066,10 @@
         <v>20.994495701599</v>
       </c>
       <c r="S10">
-        <v>0.05077120302833559</v>
+        <v>0.02599054232446986</v>
       </c>
       <c r="T10">
-        <v>0.05077120302833558</v>
+        <v>0.02599054232446986</v>
       </c>
     </row>
   </sheetData>
